--- a/Solicitudes/solicitud_01.xlsx
+++ b/Solicitudes/solicitud_01.xlsx
@@ -18,7 +18,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'000 NUEVO'!$A$1:$L$40</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>SOLICITUD DE PAGO</t>
   </si>
@@ -130,16 +129,13 @@
     <t>Fecha límite de pago:</t>
   </si>
   <si>
-    <t>Pronto Pago</t>
-  </si>
-  <si>
     <t>Número(s)  de factura (s)</t>
   </si>
   <si>
     <t>Proyecto:</t>
   </si>
   <si>
-    <t>641003608, 641003609, 64302380</t>
+    <t>Ninguno</t>
   </si>
   <si>
     <t>Solicitó</t>
@@ -425,7 +421,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -435,6 +431,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -459,6 +458,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -471,8 +476,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -481,13 +484,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="7" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="17" fontId="4" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -497,17 +509,26 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -521,38 +542,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="2" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -891,8 +897,8 @@
   </sheetPr>
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:L26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -914,609 +920,612 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="50" t="s">
+      <c r="A1" s="51"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="40"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:14" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="48"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="53"/>
     </row>
     <row r="3" spans="1:14" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="48"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="18" t="s">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="30">
+      <c r="G4" s="25"/>
+      <c r="H4" s="34">
         <v>45505</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="23" t="s">
+      <c r="I4" s="25"/>
+      <c r="J4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="24"/>
+      <c r="K4" s="25"/>
       <c r="L4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="28" t="s">
         <v>5</v>
       </c>
+      <c r="K6" s="29"/>
+      <c r="L6" s="25"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="H8" s="29" t="s">
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="H8" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
     </row>
     <row r="9" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="52"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="24"/>
-      <c r="H9" s="56">
-        <v>2550</v>
-      </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="24"/>
+      <c r="C9" s="33">
+        <v>45730</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="5"/>
+      <c r="H9" s="38">
+        <v>1400</v>
+      </c>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
     </row>
     <row r="12" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="24"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="25"/>
     </row>
     <row r="13" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="G14" s="36" t="s">
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="G14" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
     </row>
     <row r="15" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="34" t="s">
+      <c r="D15" s="29"/>
+      <c r="E15" s="25"/>
+      <c r="G15" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="24"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="25"/>
     </row>
     <row r="16" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="6"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
     </row>
     <row r="17" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="G17" s="55" t="s">
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="G17" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
     </row>
     <row r="18" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="24"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="25"/>
     </row>
     <row r="19" spans="3:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="5"/>
-      <c r="J19" s="19"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="6"/>
+      <c r="J19" s="22"/>
     </row>
     <row r="20" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="G20" s="29" t="s">
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="G20" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="31" t="s">
+      <c r="H20" s="27"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
     </row>
     <row r="21" spans="3:23" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="F21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
     </row>
     <row r="22" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="34" t="s">
+      <c r="D22" s="29"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="21"/>
+      <c r="H22" s="25"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="25"/>
     </row>
     <row r="23" spans="3:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
     </row>
     <row r="24" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-    </row>
-    <row r="25" spans="3:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="44"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="40"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+    </row>
+    <row r="25" spans="3:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="54"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="25"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
     </row>
     <row r="26" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="41"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="43"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
     </row>
     <row r="27" spans="3:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="26"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
     </row>
     <row r="28" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="G28" s="29" t="s">
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="G28" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="26"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
     </row>
     <row r="29" spans="3:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="27">
+      <c r="C29" s="30">
         <f>C9</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="27" t="s">
+        <v>45730</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="22"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="25"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+    </row>
+    <row r="30" spans="3:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+    </row>
+    <row r="31" spans="3:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+    </row>
+    <row r="32" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="24"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-    </row>
-    <row r="30" spans="3:23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-    </row>
-    <row r="31" spans="3:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-    </row>
-    <row r="32" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="32" t="s">
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="H32" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="H32" s="32" t="s">
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+    </row>
+    <row r="33" spans="2:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+    </row>
+    <row r="34" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="44"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-    </row>
-    <row r="33" spans="2:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="H33" s="45" t="s">
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="25"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+    </row>
+    <row r="35" spans="2:21" ht="4.3499999999999996" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="22"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+    </row>
+    <row r="36" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="I33" s="28"/>
-      <c r="J33" s="24"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-    </row>
-    <row r="34" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="37"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="19"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-    </row>
-    <row r="35" spans="2:21" ht="4.3499999999999996" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="19"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-    </row>
-    <row r="36" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="29" t="s">
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="22"/>
+      <c r="H36" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="19"/>
-      <c r="H36" s="29" t="s">
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+    </row>
+    <row r="37" spans="2:21" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-    </row>
-    <row r="37" spans="2:21" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="38" t="s">
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="47"/>
+      <c r="H37" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="40"/>
-      <c r="H37" s="38" t="s">
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="47"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+    </row>
+    <row r="38" spans="2:21" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="48"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="50"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="50"/>
+    </row>
+    <row r="39" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="40"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-    </row>
-    <row r="38" spans="2:21" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="41"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="43"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="43"/>
-    </row>
-    <row r="39" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="20"/>
-      <c r="H39" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="23"/>
+      <c r="H39" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B40" s="25"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="17"/>
-      <c r="N40" s="16">
+      <c r="B40" s="26"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="20"/>
+      <c r="N40" s="17">
         <v>45642</v>
       </c>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="N41" s="16">
+      <c r="N41" s="17">
         <f>N40+15</f>
         <v>45657</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="44">
     <mergeCell ref="S24:W28"/>
     <mergeCell ref="G17:L17"/>
+    <mergeCell ref="H18:L18"/>
     <mergeCell ref="C37:F38"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="G22:H22"/>
     <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C24:L24"/>
     <mergeCell ref="A1:C4"/>
-    <mergeCell ref="H33:J33"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="H32:L32"/>
-    <mergeCell ref="J6"/>
+    <mergeCell ref="C25:F25"/>
     <mergeCell ref="D1:L3"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C15:E15"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="C12:F12"/>
     <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C25:L26"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C24:L24"/>
-    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H37:L38"/>
+    <mergeCell ref="C39:E39"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="B40:E40"/>
+    <mergeCell ref="J6:L6"/>
     <mergeCell ref="C29:E29"/>
+    <mergeCell ref="H29:L29"/>
     <mergeCell ref="G28:L28"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J20:L20"/>
     <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="G15:L15"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C36:E36"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H37:L38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
